--- a/Projects/RINIELSENUS/Data/Template_2019 SPT Midyear_v1.05.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2019 SPT Midyear_v1.05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="change log" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,6 +61,8 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$L$120</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">NBIL!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">NBIL!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">NBIL!$A$1:$F$1</definedName>
@@ -80,6 +82,8 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">NBIL!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">NBIL!$A$1:$F$872</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">NBIL!$A$1:$F$872</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">NBIL!$A$1:$F$872</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">NBIL!$A$1:$F$872</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
@@ -99,6 +103,8 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$R$56</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$R$63</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$R$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$R$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$R$63</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
@@ -118,6 +124,8 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
@@ -137,6 +145,8 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
@@ -156,6 +166,8 @@
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
+    <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
+    <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -7772,11 +7784,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.67611336032389"/>
   </cols>
@@ -7986,23 +7998,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.121457489879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
@@ -8445,17 +8457,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.67611336032389"/>
   </cols>
@@ -8579,14 +8591,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.587044534413"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.67611336032389"/>
   </cols>
@@ -8951,12 +8963,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0161943319838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -9049,11 +9061,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.67611336032389"/>
   </cols>
@@ -9102,18 +9114,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.5546558704453"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="131.327935222672"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="133.789473684211"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.67611336032389"/>
   </cols>
@@ -9183,12 +9195,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.67611336032389"/>
   </cols>
@@ -9240,9 +9252,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -9325,9 +9337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
@@ -9401,11 +9413,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -20634,7 +20646,7 @@
   </sheetPr>
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
@@ -20642,16 +20654,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.67611336032389"/>
   </cols>
@@ -24925,12 +24937,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="62" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="62" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="62" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="62" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="62" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="62" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="62" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="62" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="62" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="62" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="62" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="62" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="62" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="62" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -25260,29 +25272,29 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="13" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="13" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="13" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="13" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="13" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="13" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -25366,7 +25378,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25387,27 +25399,27 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -25487,7 +25499,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25521,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25555,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25585,7 +25597,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25618,7 +25630,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25650,7 +25662,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25677,13 +25689,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.1619433198381"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.5546558704453"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.67611336032389"/>
@@ -26006,14 +26018,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.8704453441295"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.67611336032389"/>
   </cols>
@@ -26185,12 +26197,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="957" min="7" style="13" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="958" style="0" width="8.78542510121457"/>
   </cols>
@@ -36741,22 +36753,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.67611336032389"/>
